--- a/biology/Mycologie/Ochrolechia/Ochrolechia.xlsx
+++ b/biology/Mycologie/Ochrolechia/Ochrolechia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ochrolechia est un genre de lichen de la famille des Pertusariaceae. Ce sont des lichens crustacés caractérisés par de grandes apothécies avec de larges bords entourant un disque ocre ou de couleur chair. Ils vivent souvent sur d'autres lichens ou sur des mousses.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ochrolechia africana, Vainio, 1926
 Ochrolechia androgyna, (Hoffm.) Arnold, 1885
